--- a/stage2_excels/SP/SP_kfold_RBFNN.xlsx
+++ b/stage2_excels/SP/SP_kfold_RBFNN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04058621046756498</v>
+        <v>0.04058621046756481</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06507941909639489</v>
+        <v>-0.06507941909639492</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1592152080895557</v>
+        <v>-0.1592152080895556</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2746168451331249</v>
+        <v>-0.2746168451331248</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.315488465731141</v>
+        <v>-0.3154884657311409</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3291254989088974</v>
+        <v>-0.3291254989088973</v>
       </c>
     </row>
     <row r="9">
@@ -532,27 +532,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3634833942885664</v>
+        <v>-0.3634833942885662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>lab_a_median</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4762553351618749</v>
+        <v>-0.4070498946380945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>lab_a_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5505167532429757</v>
+        <v>-0.4762553351618752</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5655442601696276</v>
+        <v>-0.5666447358739972</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.5997618634780546</v>
+        <v>-0.599761863478055</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.6568187479810149</v>
+        <v>-0.6568187479810124</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7178290905640097</v>
+        <v>-0.7178290905640095</v>
       </c>
     </row>
     <row r="18">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9086786308806889</v>
+        <v>-0.9086786308806902</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.9627161093710193</v>
+        <v>-0.9627161093710217</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.9804075470505454</v>
+        <v>-0.9804075470505463</v>
       </c>
     </row>
     <row r="22">
@@ -658,21 +658,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.092673844342412</v>
+        <v>-1.131767063437755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.131767063437754</v>
+        <v>-1.160557427450876</v>
       </c>
     </row>
     <row r="25">
@@ -688,11 +688,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.199758989615142</v>
+        <v>-1.197034019764138</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.433702435490373</v>
+        <v>-1.41920809947001</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.57209154732089</v>
+        <v>-1.572091547320889</v>
       </c>
     </row>
     <row r="30">
@@ -742,77 +742,77 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.618739423352187</v>
+        <v>-1.618739423352186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_v_percentile_75</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.706446692749045</v>
+        <v>-1.635830024702998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>lab_l_mean</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.712500353841629</v>
+        <v>-1.706446692749037</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_25</t>
+          <t>luv_l_mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.849302389201907</v>
+        <v>-1.712500353841627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_y_percentile_25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.875203588141567</v>
+        <v>-1.84930238920191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>lab_b_std_dev</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.958420492322141</v>
+        <v>-1.855482301097366</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>lab_b_variance</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.048728485970528</v>
+        <v>-1.958420492322142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>luv_l_median</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.071071573475761</v>
+        <v>-2.048728485970528</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.072561496456339</v>
+        <v>-2.072561496456337</v>
       </c>
     </row>
     <row r="40">
@@ -838,11 +838,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>luv_l_std_dev</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.165184315204497</v>
+        <v>-2.127798191399044</v>
       </c>
     </row>
     <row r="42">
@@ -852,417 +852,427 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.172815614923166</v>
+        <v>-2.172815614923164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.202517395748032</v>
+        <v>-2.176128948736711</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_75</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.228227299634922</v>
+        <v>-2.185265252309914</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>hsv_s_percentile_75</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.305274803697383</v>
+        <v>-2.202517395748031</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>xyz_z_percentile_75</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.372791872988023</v>
+        <v>-2.228227299634923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.474979315100512</v>
+        <v>-2.305274803697382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.558705922586666</v>
+        <v>-2.372791872988023</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>hsv_v_percentile_75</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.636305210956547</v>
+        <v>-2.474979315100514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.737495814022028</v>
+        <v>-2.558705922586667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.788877670180382</v>
+        <v>-2.636305210956543</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.889663051342782</v>
+        <v>-2.737495814022026</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2.896447209228987</v>
+        <v>-2.788877670180384</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-2.985920437135717</v>
+        <v>-2.889663051342783</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-3.141401023615261</v>
+        <v>-2.896447209228987</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.386983495782551</v>
+        <v>-2.985920437135716</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>luv_l_percentile_75</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3.390590427999475</v>
+        <v>-3.163333635803665</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.517010478569972</v>
+        <v>-3.38698349578255</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>lab_l_std_dev</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.543335506508877</v>
+        <v>-3.517010478569967</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-3.697348085911995</v>
+        <v>-3.518292586181256</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.765881793356124</v>
+        <v>-3.697348085911995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>luv_l_variance</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-3.888607717835016</v>
+        <v>-3.765881793356124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>lab_l_variance</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-3.917340228425749</v>
+        <v>-3.888607717835017</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>xyz_y_percentile_75</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-4.157876202178092</v>
+        <v>-3.91734022842575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_75</t>
+          <t>xyz_y_percentile_75</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-4.540000870973192</v>
+        <v>-4.157876202178083</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>yuv_y_percentile_75</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-4.679168267420735</v>
+        <v>-4.540000870973193</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_75</t>
+          <t>luv_u_percentile_75</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-4.716896578666538</v>
+        <v>-4.671855637919466</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>xyz_x_percentile_75</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-4.724293874574677</v>
+        <v>-4.716896578666538</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_25</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4.754953763140253</v>
+        <v>-4.724293874574678</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
+          <t>hsv_s_percentile_25</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-4.887172413365415</v>
+        <v>-4.754953763140253</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>luv_v_percentile_75</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-6.172586664327364</v>
+        <v>-4.887172413365415</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_25</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-6.531747772135574</v>
+        <v>-6.155308079028291</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>xyz_z_percentile_25</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-7.150131261700342</v>
+        <v>-6.53174777213558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>hsv_h_percentile_25</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-8.215721701818342</v>
+        <v>-7.153523033827443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>luv_v_std_dev</t>
+          <t>luv_u_median</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-9.100756169668959</v>
+        <v>-8.215721701818342</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>luv_v_std_dev</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-9.954326755160526</v>
+        <v>-9.098393782976245</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>luv_v_variance</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-10.42330577035311</v>
+        <v>-9.954326755160524</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-10.72803496465999</v>
+        <v>-10.4233057703531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>lab_b_percentile_75</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-10.83169472142481</v>
+        <v>-10.72803496466</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>luv_v_median</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-11.40515885635772</v>
+        <v>-10.83169472142482</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lab_l_percentile_75</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-11.85069043445608</v>
+        <v>-11.40515885635772</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>lab_l_percentile_75</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-23.82005020209859</v>
+        <v>-11.85069043445608</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-23.82005020209859</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>xyz_z_variance</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>-23.82275793459629</v>
+      <c r="B84" t="n">
+        <v>-23.82275793459631</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_kfold_RBFNN.xlsx
+++ b/stage2_excels/SP/SP_kfold_RBFNN.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03679756950054358</v>
+        <v>-0.03679756950054447</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1592152080895556</v>
+        <v>-0.1592152080895559</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3154884657311409</v>
+        <v>-0.315488465731141</v>
       </c>
     </row>
     <row r="8">
@@ -532,27 +532,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3634833942885662</v>
+        <v>-0.3634833942885665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>lab_a_mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4070498946380945</v>
+        <v>-0.4762553351618747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>lab_a_median</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4762553351618752</v>
+        <v>-0.5505167532429762</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5666447358739972</v>
+        <v>-0.5861129482599128</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.599761863478055</v>
+        <v>-0.5997618634780553</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.6568187479810124</v>
+        <v>-0.6568187479810149</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9086786308806902</v>
+        <v>-0.9086786308806882</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.9627161093710217</v>
+        <v>-0.9627161093710195</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.9804075470505463</v>
+        <v>-0.9804075470505454</v>
       </c>
     </row>
     <row r="22">
@@ -652,27 +652,27 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.9915664205417679</v>
+        <v>-0.9915664205417677</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.131767063437755</v>
+        <v>-1.09267384434241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.160557427450876</v>
+        <v>-1.131767063437756</v>
       </c>
     </row>
     <row r="25">
@@ -682,17 +682,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.182933140331367</v>
+        <v>-1.182933140331368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.197034019764138</v>
+        <v>-1.199758989615143</v>
       </c>
     </row>
     <row r="27">
@@ -702,147 +702,147 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.41920809947001</v>
+        <v>-1.419208099470009</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>luv_v_mean</t>
+          <t>luv_l_median</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.457000594827201</v>
+        <v>-1.45492121217548</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>luv_v_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.572091547320889</v>
+        <v>-1.457000594827201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.613021755693069</v>
+        <v>-1.572091547320893</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_25</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.618739423352186</v>
+        <v>-1.613021755693069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>yuv_v_percentile_75</t>
+          <t>xyz_x_percentile_25</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.635830024702998</v>
+        <v>-1.618739423352186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_v_percentile_75</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.706446692749037</v>
+        <v>-1.635830024702996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>lab_l_mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.712500353841627</v>
+        <v>-1.706446692749044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_25</t>
+          <t>luv_l_mean</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.84930238920191</v>
+        <v>-1.712500353841627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_y_percentile_25</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.855482301097366</v>
+        <v>-1.849302389201905</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>lab_b_std_dev</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.958420492322142</v>
+        <v>-1.875203588141567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>lab_b_variance</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.048728485970528</v>
+        <v>-1.958420492322141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lab_a_percentile_75</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.072561496456337</v>
+        <v>-2.071071573475761</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>lab_a_percentile_75</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.103022149041728</v>
+        <v>-2.072561496456339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.127798191399044</v>
+        <v>-2.103022149041728</v>
       </c>
     </row>
     <row r="42">
@@ -862,157 +862,157 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.176128948736711</v>
+        <v>-2.196629857791946</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>hsv_s_percentile_75</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.185265252309914</v>
+        <v>-2.202517395748032</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>xyz_z_percentile_75</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.202517395748031</v>
+        <v>-2.228227299634923</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.228227299634923</v>
+        <v>-2.305274803697382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.305274803697382</v>
+        <v>-2.372791872988026</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>hsv_v_percentile_75</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.372791872988023</v>
+        <v>-2.481184214933442</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.474979315100514</v>
+        <v>-2.558705922586666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.558705922586667</v>
+        <v>-2.636305210956543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.636305210956543</v>
+        <v>-2.737495814022028</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.737495814022026</v>
+        <v>-2.788877670180384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2.788877670180384</v>
+        <v>-2.889663051342783</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-2.889663051342783</v>
+        <v>-2.896447209228987</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-2.896447209228987</v>
+        <v>-2.985920437135717</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>luv_l_percentile_75</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-2.985920437135716</v>
+        <v>-3.141401023615262</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3.163333635803665</v>
+        <v>-3.386983495782551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>luv_l_std_dev</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.38698349578255</v>
+        <v>-3.390590427999475</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.517010478569967</v>
+        <v>-3.517010478569972</v>
       </c>
     </row>
     <row r="60">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-3.888607717835017</v>
+        <v>-3.888607717835016</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-3.91734022842575</v>
+        <v>-3.917340228425755</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-4.157876202178083</v>
+        <v>-4.157876202178091</v>
       </c>
     </row>
     <row r="66">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-4.671855637919466</v>
+        <v>-4.679168267420731</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-4.716896578666538</v>
+        <v>-4.716896578666537</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4.724293874574678</v>
+        <v>-4.724293874574682</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-4.754953763140253</v>
+        <v>-4.754953763140257</v>
       </c>
     </row>
     <row r="71">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-6.155308079028291</v>
+        <v>-6.172586664327364</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-6.53174777213558</v>
+        <v>-6.531747772135579</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-7.153523033827443</v>
+        <v>-7.153523033827442</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-8.215721701818342</v>
+        <v>-8.215721701818355</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-9.098393782976245</v>
+        <v>-9.098393782976235</v>
       </c>
     </row>
     <row r="77">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-10.4233057703531</v>
+        <v>-10.42330577035311</v>
       </c>
     </row>
     <row r="79">
